--- a/outputs-r202/o__Fibrobacterales.xlsx
+++ b/outputs-r202/o__Fibrobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG690.fasta</t>
+          <t>RUG480.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.01587300000000003</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.984127</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.984127</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG831.fasta</t>
+          <t>RUG690.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -591,6 +591,32 @@
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG831.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>f__Fibrobacteraceae</t>
         </is>

--- a/outputs-r202/o__Fibrobacterales.xlsx
+++ b/outputs-r202/o__Fibrobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -750,6 +820,11 @@
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>f__Fibrobacteraceae</t>
         </is>

--- a/outputs-r202/o__Fibrobacterales.xlsx
+++ b/outputs-r202/o__Fibrobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG129.fasta</t>
+          <t>RUG181.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -495,7 +495,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG130.fasta</t>
+          <t>RUG229.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG181.fasta</t>
+          <t>RUG438.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG229.fasta</t>
+          <t>RUG480.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.01587300000000003</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.984127</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.984127</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG438.fasta</t>
+          <t>RUG690.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -599,17 +599,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG480.fasta</t>
+          <t>RUG831.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01587300000000003</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.984127</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.984127</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -617,214 +617,6 @@
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RUG486.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG540.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG560.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG690.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG702.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RUG714.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>RUG752.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>RUG831.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>f__Fibrobacteraceae</t>
         </is>
